--- a/experimental_data/GEC_aging/Swift1978.xlsx
+++ b/experimental_data/GEC_aging/Swift1978.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="165" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,18 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Swift1978 – Antipyrene.disposition.and.liver.size</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>antipyrene clearance</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>subjects</t>
+  </si>
+  <si>
+    <t>healthy individuals &amp; hospitalized elderly, liver volume by ultrasonic scanning technique</t>
+  </si>
+  <si>
     <t>Table 1</t>
   </si>
   <si>
     <t>state</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>age min [years]</t>
@@ -98,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,14 +156,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -188,7 +207,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -197,11 +216,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -285,15 +312,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>781920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9164520" y="1333080"/>
+          <a:ext cx="6570000" cy="5052240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -313,174 +384,207 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="14">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="71.3" outlineLevel="0" r="15">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="16">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D17" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E17" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>1303</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>19.4</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C18" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D18" s="7" t="n">
         <v>86</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E18" s="7" t="n">
         <v>58</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>990</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>15.3</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C19" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D19" s="7" t="n">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E19" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>15.6</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>3.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -489,5 +593,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>